--- a/data/02_data_extraction/data_extraction_setSD_checkedTR.xlsx
+++ b/data/02_data_extraction/data_extraction_setSD_checkedTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/GNM_Analysis/data/02_data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Desktop/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCD8E6-76D2-944B-995C-7B97C8844FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E10132-00A5-4844-B070-15BDE24D7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="500" windowWidth="62660" windowHeight="21100" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
+    <workbookView xWindow="-49540" yWindow="-21500" windowWidth="42440" windowHeight="26040" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -1144,9 +1144,6 @@
     <t xml:space="preserve">We expect a negative relationship between telomere dynamic and GNM. Telomere dynamic is calculated as rank difference in telomere length. </t>
   </si>
   <si>
-    <t>Authors say that the adults from green material would be with better body condition as compared to those without the green nest material. If they are healthier, they could provide better parental care to the nestlings.</t>
-  </si>
-  <si>
     <t>Authors say: Spotless starling females generally removed the green nesting material, both the experimental plants added by the researchers and those put into the nests by the males. I have given an NA for this considering the experimental nests are not blank and could have a mix of aromatic plants still in the control group.</t>
   </si>
   <si>
@@ -1186,6 +1183,9 @@
   </si>
   <si>
     <t>sensitivity-analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors are just using female body condition to control for the effect it can have. We are excluding it and adult body condition being affected by GNM is rather tricky to interpret and describe a true direction of effect for. </t>
   </si>
 </sst>
 </file>
@@ -1769,9 +1769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDDD25-569C-114E-BA1C-CFE63559CC31}">
   <dimension ref="A1:AX119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD63" sqref="AD63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD78" sqref="AD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,10 +1956,10 @@
         <v>105</v>
       </c>
       <c r="AW1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,7 +2963,7 @@
         <v>275</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE8" s="9">
         <v>-1</v>
@@ -3419,7 +3419,7 @@
         <v>275</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE11" s="9">
         <v>-1</v>
@@ -7368,10 +7368,10 @@
         <v>181</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AE37" s="9">
         <v>1</v>
@@ -7520,10 +7520,10 @@
         <v>181</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AE38" s="9">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>275</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE63" s="5">
         <v>1</v>
@@ -11475,7 +11475,7 @@
         <v>275</v>
       </c>
       <c r="AD64" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE64" s="5">
         <v>1</v>
@@ -11627,7 +11627,7 @@
         <v>275</v>
       </c>
       <c r="AD65" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE65" s="5">
         <v>1</v>
@@ -11779,7 +11779,7 @@
         <v>275</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE66" s="5">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
         <v>275</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE67" s="5">
         <v>-1</v>
@@ -12083,7 +12083,7 @@
         <v>275</v>
       </c>
       <c r="AD68" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE68" s="5">
         <v>-1</v>
@@ -12235,7 +12235,7 @@
         <v>275</v>
       </c>
       <c r="AD69" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE69" s="5">
         <v>-1</v>
@@ -12387,7 +12387,7 @@
         <v>275</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE70" s="5">
         <v>-1</v>
@@ -12539,7 +12539,7 @@
         <v>275</v>
       </c>
       <c r="AD71" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE71" s="5">
         <v>-1</v>
@@ -12730,7 +12730,7 @@
         <v>109</v>
       </c>
       <c r="AQ72" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR72" s="11" t="s">
         <v>111</v>
@@ -12882,7 +12882,7 @@
         <v>109</v>
       </c>
       <c r="AQ73" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR73" s="11" t="s">
         <v>111</v>
@@ -13034,7 +13034,7 @@
         <v>109</v>
       </c>
       <c r="AQ74" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR74" s="11" t="s">
         <v>111</v>
@@ -13144,7 +13144,7 @@
         <v>181</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD75" s="9" t="s">
         <v>292</v>
@@ -13186,7 +13186,7 @@
         <v>109</v>
       </c>
       <c r="AQ75" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR75" s="11" t="s">
         <v>111</v>
@@ -13296,7 +13296,7 @@
         <v>181</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD76" s="9" t="s">
         <v>292</v>
@@ -13338,7 +13338,7 @@
         <v>109</v>
       </c>
       <c r="AQ76" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR76" s="11" t="s">
         <v>111</v>
@@ -13448,7 +13448,7 @@
         <v>181</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD77" s="9" t="s">
         <v>292</v>
@@ -13490,7 +13490,7 @@
         <v>109</v>
       </c>
       <c r="AQ77" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR77" s="11" t="s">
         <v>111</v>
@@ -13603,7 +13603,7 @@
         <v>275</v>
       </c>
       <c r="AD78" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE78" s="5">
         <v>1</v>
@@ -13755,7 +13755,7 @@
         <v>275</v>
       </c>
       <c r="AD79" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE79" s="5">
         <v>1</v>
@@ -13907,7 +13907,7 @@
         <v>275</v>
       </c>
       <c r="AD80" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE80" s="5">
         <v>1</v>
@@ -14059,7 +14059,7 @@
         <v>275</v>
       </c>
       <c r="AD81" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE81" s="5">
         <v>1</v>
@@ -14211,7 +14211,7 @@
         <v>275</v>
       </c>
       <c r="AD82" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE82" s="5">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>275</v>
       </c>
       <c r="AD83" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE83" s="5">
         <v>1</v>
@@ -14515,7 +14515,7 @@
         <v>275</v>
       </c>
       <c r="AD84" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE84" s="5">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>275</v>
       </c>
       <c r="AD85" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE85" s="5">
         <v>1</v>
@@ -14819,7 +14819,7 @@
         <v>275</v>
       </c>
       <c r="AD86" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE86" s="5">
         <v>1</v>
@@ -14971,7 +14971,7 @@
         <v>275</v>
       </c>
       <c r="AD87" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE87" s="5">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>275</v>
       </c>
       <c r="AD88" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE88" s="5">
         <v>1</v>
@@ -15275,7 +15275,7 @@
         <v>275</v>
       </c>
       <c r="AD89" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE89" s="5">
         <v>1</v>
@@ -15427,7 +15427,7 @@
         <v>275</v>
       </c>
       <c r="AD90" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE90" s="5">
         <v>1</v>
@@ -15579,7 +15579,7 @@
         <v>275</v>
       </c>
       <c r="AD91" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE91" s="5">
         <v>1</v>
@@ -15731,7 +15731,7 @@
         <v>275</v>
       </c>
       <c r="AD92" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE92" s="5">
         <v>1</v>
@@ -15883,7 +15883,7 @@
         <v>275</v>
       </c>
       <c r="AD93" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE93" s="5">
         <v>1</v>
@@ -16035,7 +16035,7 @@
         <v>275</v>
       </c>
       <c r="AD94" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE94" s="5">
         <v>1</v>
@@ -16187,7 +16187,7 @@
         <v>275</v>
       </c>
       <c r="AD95" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE95" s="5">
         <v>1</v>
@@ -16303,7 +16303,7 @@
         <v>42.85</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S96" s="8" t="s">
         <v>108</v>
@@ -16318,7 +16318,7 @@
         <v>15.38</v>
       </c>
       <c r="W96" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X96" s="8" t="s">
         <v>108</v>
@@ -16336,10 +16336,10 @@
         <v>153</v>
       </c>
       <c r="AC96" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD96" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="AD96" s="33" t="s">
-        <v>302</v>
       </c>
       <c r="AE96" s="9">
         <v>1</v>
@@ -16455,7 +16455,7 @@
         <v>15.38</v>
       </c>
       <c r="R97" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S97" s="8" t="s">
         <v>108</v>
@@ -16470,7 +16470,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="W97" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X97" s="8" t="s">
         <v>108</v>
@@ -16488,10 +16488,10 @@
         <v>153</v>
       </c>
       <c r="AC97" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD97" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="AD97" s="33" t="s">
-        <v>302</v>
       </c>
       <c r="AE97" s="9">
         <v>1</v>
@@ -16607,7 +16607,7 @@
         <v>42.85</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S98" s="8" t="s">
         <v>108</v>
@@ -16622,7 +16622,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X98" s="8" t="s">
         <v>108</v>
@@ -16640,10 +16640,10 @@
         <v>153</v>
       </c>
       <c r="AC98" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD98" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="AD98" s="33" t="s">
-        <v>302</v>
       </c>
       <c r="AE98" s="9">
         <v>1</v>
@@ -19024,7 +19024,7 @@
         <v>250</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>108</v>
@@ -19072,7 +19072,7 @@
         <v>153</v>
       </c>
       <c r="AC114" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD114" s="9" t="s">
         <v>290</v>
@@ -19114,7 +19114,7 @@
         <v>109</v>
       </c>
       <c r="AQ114" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AR114" s="10" t="s">
         <v>111</v>
@@ -19176,7 +19176,7 @@
         <v>250</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N115" s="10" t="s">
         <v>108</v>
@@ -19224,7 +19224,7 @@
         <v>153</v>
       </c>
       <c r="AC115" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD115" s="9" t="s">
         <v>290</v>
@@ -19266,7 +19266,7 @@
         <v>109</v>
       </c>
       <c r="AQ115" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AR115" s="10" t="s">
         <v>111</v>
@@ -19328,7 +19328,7 @@
         <v>250</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N116" s="10" t="s">
         <v>108</v>
@@ -19376,7 +19376,7 @@
         <v>153</v>
       </c>
       <c r="AC116" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD116" s="9" t="s">
         <v>290</v>
@@ -19418,7 +19418,7 @@
         <v>109</v>
       </c>
       <c r="AQ116" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AR116" s="10" t="s">
         <v>111</v>
@@ -19480,7 +19480,7 @@
         <v>250</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N117" s="10" t="s">
         <v>108</v>
@@ -19528,7 +19528,7 @@
         <v>153</v>
       </c>
       <c r="AC117" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD117" s="9" t="s">
         <v>290</v>
@@ -19570,7 +19570,7 @@
         <v>109</v>
       </c>
       <c r="AQ117" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AR117" s="10" t="s">
         <v>111</v>
@@ -19632,7 +19632,7 @@
         <v>250</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N118" s="10" t="s">
         <v>108</v>
@@ -19680,7 +19680,7 @@
         <v>153</v>
       </c>
       <c r="AC118" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD118" s="9" t="s">
         <v>290</v>
@@ -19722,7 +19722,7 @@
         <v>109</v>
       </c>
       <c r="AQ118" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AR118" s="10" t="s">
         <v>111</v>
@@ -19784,7 +19784,7 @@
         <v>250</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N119" s="10" t="s">
         <v>108</v>
@@ -19832,7 +19832,7 @@
         <v>153</v>
       </c>
       <c r="AC119" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD119" s="9" t="s">
         <v>290</v>
@@ -19874,7 +19874,7 @@
         <v>109</v>
       </c>
       <c r="AQ119" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AR119" s="10" t="s">
         <v>111</v>

--- a/data/02_data_extraction/data_extraction_setSD_checkedTR.xlsx
+++ b/data/02_data_extraction/data_extraction_setSD_checkedTR.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Desktop/Green_Nest_Material/data/02_data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E10132-00A5-4844-B070-15BDE24D7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D5DDD-A520-784D-A7DE-FF62ACB4FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49540" yWindow="-21500" windowWidth="42440" windowHeight="26040" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="81920" windowHeight="23040" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="meta-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="310">
   <si>
     <t>group_ID</t>
   </si>
@@ -1185,7 +1185,10 @@
     <t>sensitivity-analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Authors are just using female body condition to control for the effect it can have. We are excluding it and adult body condition being affected by GNM is rather tricky to interpret and describe a true direction of effect for. </t>
+    <t>exclude_NA</t>
+  </si>
+  <si>
+    <t>Authors are just using female body condition to control for the effect it can have. We are excluding it and adult body condition being affected by GNM is rather tricky to interpret and describe a true direction of effect for. </t>
   </si>
 </sst>
 </file>
@@ -1769,9 +1772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDDD25-569C-114E-BA1C-CFE63559CC31}">
   <dimension ref="A1:AX119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD78" sqref="AD78"/>
+      <selection pane="topRight" activeCell="AF44" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1783,7 @@
     <col min="5" max="5" width="16.5" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="17" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="3.5" style="17" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="17" customWidth="1"/>
@@ -1798,7 +1801,7 @@
     <col min="24" max="24" width="7" style="17" customWidth="1"/>
     <col min="25" max="25" width="4.33203125" style="17" customWidth="1"/>
     <col min="26" max="26" width="9.1640625" style="17" customWidth="1"/>
-    <col min="27" max="27" width="26.5" style="17" customWidth="1"/>
+    <col min="27" max="27" width="32.83203125" style="17" customWidth="1"/>
     <col min="28" max="30" width="14.5" style="17" customWidth="1"/>
     <col min="32" max="32" width="15.33203125" style="17" customWidth="1"/>
     <col min="33" max="34" width="16" style="17" customWidth="1"/>
@@ -3872,7 +3875,7 @@
         <v>153</v>
       </c>
       <c r="AC14" s="30" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD14" s="30" t="s">
         <v>281</v>
@@ -4024,7 +4027,7 @@
         <v>153</v>
       </c>
       <c r="AC15" s="30" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD15" s="30" t="s">
         <v>281</v>
@@ -4175,8 +4178,8 @@
       <c r="AB16" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="AC16" s="29" t="s">
-        <v>275</v>
+      <c r="AC16" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="AD16" s="30" t="s">
         <v>281</v>
@@ -4327,8 +4330,8 @@
       <c r="AB17" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="AC17" s="29" t="s">
-        <v>275</v>
+      <c r="AC17" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="AD17" s="30" t="s">
         <v>281</v>
@@ -4479,8 +4482,8 @@
       <c r="AB18" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="AC18" s="29" t="s">
-        <v>275</v>
+      <c r="AC18" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="AD18" s="30" t="s">
         <v>281</v>
@@ -7371,7 +7374,7 @@
         <v>275</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AE37" s="9">
         <v>1</v>
@@ -7523,7 +7526,7 @@
         <v>275</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AE38" s="9">
         <v>1</v>
@@ -8068,10 +8071,10 @@
         <v>2</v>
       </c>
       <c r="I42" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>193</v>
@@ -8372,10 +8375,10 @@
         <v>2</v>
       </c>
       <c r="I44" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>193</v>
@@ -8527,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>193</v>
@@ -8676,10 +8679,10 @@
         <v>2</v>
       </c>
       <c r="I46" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>193</v>
@@ -8831,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>193</v>
@@ -8980,10 +8983,10 @@
         <v>2</v>
       </c>
       <c r="I48" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>193</v>
@@ -9135,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>193</v>
@@ -9284,10 +9287,10 @@
         <v>2</v>
       </c>
       <c r="I50" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>193</v>
@@ -9439,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>193</v>
@@ -9588,10 +9591,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K52" s="13" t="s">
         <v>193</v>
@@ -9743,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>193</v>
@@ -9892,10 +9895,10 @@
         <v>2</v>
       </c>
       <c r="I54" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>193</v>
@@ -10047,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>193</v>
@@ -10196,10 +10199,10 @@
         <v>2</v>
       </c>
       <c r="I56" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>193</v>
@@ -10351,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>193</v>
@@ -10500,10 +10503,10 @@
         <v>2</v>
       </c>
       <c r="I58" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>193</v>
@@ -10655,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>193</v>
@@ -10804,10 +10807,10 @@
         <v>2</v>
       </c>
       <c r="I60" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>193</v>
@@ -10959,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>193</v>
@@ -11108,10 +11111,10 @@
         <v>2</v>
       </c>
       <c r="I62" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>193</v>
@@ -11320,7 +11323,7 @@
         <v>153</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD63" s="5" t="s">
         <v>303</v>
@@ -11472,7 +11475,7 @@
         <v>153</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD64" s="5" t="s">
         <v>304</v>
@@ -11624,7 +11627,7 @@
         <v>153</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD65" s="5" t="s">
         <v>304</v>
@@ -11776,7 +11779,7 @@
         <v>178</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD66" s="5" t="s">
         <v>304</v>
@@ -11928,7 +11931,7 @@
         <v>178</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD67" s="5" t="s">
         <v>304</v>
@@ -12080,7 +12083,7 @@
         <v>178</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD68" s="5" t="s">
         <v>304</v>
@@ -12232,7 +12235,7 @@
         <v>179</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD69" s="5" t="s">
         <v>304</v>
@@ -12384,7 +12387,7 @@
         <v>179</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD70" s="5" t="s">
         <v>304</v>
@@ -12536,7 +12539,7 @@
         <v>179</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD71" s="5" t="s">
         <v>304</v>
@@ -13600,7 +13603,7 @@
         <v>181</v>
       </c>
       <c r="AC78" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD78" s="5" t="s">
         <v>305</v>
@@ -13752,7 +13755,7 @@
         <v>181</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD79" s="5" t="s">
         <v>305</v>
@@ -13904,7 +13907,7 @@
         <v>181</v>
       </c>
       <c r="AC80" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD80" s="5" t="s">
         <v>305</v>
@@ -14056,7 +14059,7 @@
         <v>152</v>
       </c>
       <c r="AC81" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD81" s="37" t="s">
         <v>304</v>
@@ -14208,7 +14211,7 @@
         <v>152</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD82" s="37" t="s">
         <v>304</v>
@@ -14360,7 +14363,7 @@
         <v>152</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD83" s="37" t="s">
         <v>304</v>
@@ -14455,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K84" s="35" t="s">
         <v>216</v>
@@ -14512,7 +14515,7 @@
         <v>152</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD84" s="37" t="s">
         <v>304</v>
@@ -14607,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K85" s="35" t="s">
         <v>216</v>
@@ -14664,7 +14667,7 @@
         <v>152</v>
       </c>
       <c r="AC85" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD85" s="37" t="s">
         <v>304</v>
@@ -14759,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K86" s="35" t="s">
         <v>216</v>
@@ -14816,7 +14819,7 @@
         <v>152</v>
       </c>
       <c r="AC86" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD86" s="37" t="s">
         <v>304</v>
@@ -14911,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="35">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K87" s="35" t="s">
         <v>216</v>
@@ -14968,7 +14971,7 @@
         <v>152</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD87" s="37" t="s">
         <v>304</v>
@@ -15063,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K88" s="35" t="s">
         <v>216</v>
@@ -15120,7 +15123,7 @@
         <v>152</v>
       </c>
       <c r="AC88" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD88" s="37" t="s">
         <v>304</v>
@@ -15215,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K89" s="35" t="s">
         <v>216</v>
@@ -15272,7 +15275,7 @@
         <v>152</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD89" s="37" t="s">
         <v>304</v>
@@ -15367,7 +15370,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K90" s="35" t="s">
         <v>216</v>
@@ -15424,7 +15427,7 @@
         <v>153</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD90" s="37" t="s">
         <v>304</v>
@@ -15519,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K91" s="35" t="s">
         <v>216</v>
@@ -15576,7 +15579,7 @@
         <v>153</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD91" s="37" t="s">
         <v>304</v>
@@ -15671,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="35">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K92" s="35" t="s">
         <v>216</v>
@@ -15728,7 +15731,7 @@
         <v>153</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD92" s="37" t="s">
         <v>304</v>
@@ -15823,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K93" s="35" t="s">
         <v>216</v>
@@ -15880,7 +15883,7 @@
         <v>153</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD93" s="37" t="s">
         <v>304</v>
@@ -15975,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="35">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K94" s="35" t="s">
         <v>216</v>
@@ -16032,7 +16035,7 @@
         <v>153</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD94" s="37" t="s">
         <v>304</v>
@@ -16127,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="35">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K95" s="35" t="s">
         <v>216</v>
@@ -16184,7 +16187,7 @@
         <v>153</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AD95" s="37" t="s">
         <v>304</v>
@@ -16279,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>216</v>
@@ -16431,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>216</v>
@@ -16583,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>216</v>
@@ -17951,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="24" t="s">
         <v>247</v>
@@ -18044,7 +18047,7 @@
         <v>208</v>
       </c>
       <c r="AO107" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP107" s="25" t="s">
         <v>109</v>
@@ -18103,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K108" s="24" t="s">
         <v>247</v>
@@ -18196,7 +18199,7 @@
         <v>208</v>
       </c>
       <c r="AO108" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP108" s="25" t="s">
         <v>109</v>
@@ -18255,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K109" s="24" t="s">
         <v>247</v>
@@ -18348,7 +18351,7 @@
         <v>208</v>
       </c>
       <c r="AO109" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP109" s="25" t="s">
         <v>109</v>
@@ -18407,7 +18410,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K110" s="24" t="s">
         <v>247</v>
@@ -18500,7 +18503,7 @@
         <v>108</v>
       </c>
       <c r="AO110" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP110" s="25" t="s">
         <v>109</v>
@@ -18559,7 +18562,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K111" s="24" t="s">
         <v>247</v>
@@ -18652,7 +18655,7 @@
         <v>108</v>
       </c>
       <c r="AO111" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP111" s="25" t="s">
         <v>109</v>
@@ -18711,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K112" s="24" t="s">
         <v>247</v>
@@ -18804,7 +18807,7 @@
         <v>184</v>
       </c>
       <c r="AO112" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP112" s="25" t="s">
         <v>109</v>
@@ -18863,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K113" s="24" t="s">
         <v>247</v>
@@ -18956,7 +18959,7 @@
         <v>184</v>
       </c>
       <c r="AO113" s="25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AP113" s="25" t="s">
         <v>109</v>
@@ -19167,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>193</v>
@@ -19319,7 +19322,7 @@
         <v>2</v>
       </c>
       <c r="J116" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K116" s="10" t="s">
         <v>193</v>
@@ -19471,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K117" s="10" t="s">
         <v>193</v>
@@ -19623,7 +19626,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K118" s="10" t="s">
         <v>193</v>
@@ -19775,7 +19778,7 @@
         <v>2</v>
       </c>
       <c r="J119" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K119" s="10" t="s">
         <v>193</v>

--- a/data/02_data_extraction/data_extraction_setSD_checkedTR.xlsx
+++ b/data/02_data_extraction/data_extraction_setSD_checkedTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D5DDD-A520-784D-A7DE-FF62ACB4FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECC77B-CBBE-1E47-B854-FDB79D002BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="81920" windowHeight="23040" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
+    <workbookView xWindow="6380" yWindow="4280" windowWidth="87060" windowHeight="23040" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="308">
   <si>
     <t>group_ID</t>
   </si>
@@ -1061,12 +1061,6 @@
   </si>
   <si>
     <t>This is absolute reproductive success presented as a % variable. I was not sure if this should be extracted or not. It has no possible variance.</t>
-  </si>
-  <si>
-    <t>unclear</t>
-  </si>
-  <si>
-    <t>Authors do not add green material but rather birds add the green nest material and in the control, authors remove it. These were the most commonly green material added by the birds.</t>
   </si>
   <si>
     <t>Random assignment: Authors say "We randomly assigned each nest initiation either to a "plant removal" or a "control" treatment to test the hypothesis that green vegetation used by nesting starlings decreases the detrimental effects of ectoparasites."</t>
@@ -1772,9 +1766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDDD25-569C-114E-BA1C-CFE63559CC31}">
   <dimension ref="A1:AX119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF44" sqref="AF44"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU96" sqref="AU96:AU98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1899,13 +1893,13 @@
         <v>98</v>
       </c>
       <c r="AC1" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE1" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>273</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>3</v>
@@ -1959,10 +1953,10 @@
         <v>105</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2811,10 +2805,10 @@
         <v>154</v>
       </c>
       <c r="AC7" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD7" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="AE7" s="9">
         <v>1</v>
@@ -2963,10 +2957,10 @@
         <v>154</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AE8" s="9">
         <v>-1</v>
@@ -3115,10 +3109,10 @@
         <v>154</v>
       </c>
       <c r="AC9" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="AE9" s="9">
         <v>1</v>
@@ -3267,10 +3261,10 @@
         <v>154</v>
       </c>
       <c r="AC10" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD10" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="AE10" s="9">
         <v>1</v>
@@ -3419,10 +3413,10 @@
         <v>154</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AE11" s="9">
         <v>-1</v>
@@ -3571,10 +3565,10 @@
         <v>154</v>
       </c>
       <c r="AC12" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD12" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="AE12" s="9">
         <v>1</v>
@@ -3723,10 +3717,10 @@
         <v>154</v>
       </c>
       <c r="AC13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD13" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="AE13" s="9">
         <v>1</v>
@@ -3800,7 +3794,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>125</v>
@@ -3875,10 +3869,10 @@
         <v>153</v>
       </c>
       <c r="AC14" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AE14" s="30" t="s">
         <v>108</v>
@@ -3952,7 +3946,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>125</v>
@@ -4027,10 +4021,10 @@
         <v>153</v>
       </c>
       <c r="AC15" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD15" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AE15" s="30" t="s">
         <v>108</v>
@@ -4104,7 +4098,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>125</v>
@@ -4179,10 +4173,10 @@
         <v>178</v>
       </c>
       <c r="AC16" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD16" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AE16" s="30" t="s">
         <v>108</v>
@@ -4256,7 +4250,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>125</v>
@@ -4331,10 +4325,10 @@
         <v>153</v>
       </c>
       <c r="AC17" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD17" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AE17" s="30" t="s">
         <v>108</v>
@@ -4408,7 +4402,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>125</v>
@@ -4483,10 +4477,10 @@
         <v>178</v>
       </c>
       <c r="AC18" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD18" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AE18" s="30" t="s">
         <v>108</v>
@@ -4560,7 +4554,7 @@
         <v>108</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>125</v>
@@ -4635,7 +4629,7 @@
         <v>153</v>
       </c>
       <c r="AC19" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD19" s="27" t="s">
         <v>108</v>
@@ -4787,7 +4781,7 @@
         <v>153</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD20" s="9" t="s">
         <v>108</v>
@@ -4939,7 +4933,7 @@
         <v>178</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD21" s="9" t="s">
         <v>108</v>
@@ -5091,7 +5085,7 @@
         <v>178</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD22" s="9" t="s">
         <v>108</v>
@@ -5243,7 +5237,7 @@
         <v>153</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD23" s="9" t="s">
         <v>108</v>
@@ -5395,7 +5389,7 @@
         <v>153</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD24" s="9" t="s">
         <v>108</v>
@@ -5547,7 +5541,7 @@
         <v>179</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD25" s="9" t="s">
         <v>108</v>
@@ -5699,7 +5693,7 @@
         <v>179</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD26" s="9" t="s">
         <v>108</v>
@@ -5851,7 +5845,7 @@
         <v>179</v>
       </c>
       <c r="AC27" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD27" s="9" t="s">
         <v>108</v>
@@ -6003,7 +5997,7 @@
         <v>179</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD28" s="9" t="s">
         <v>108</v>
@@ -6155,7 +6149,7 @@
         <v>179</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD29" s="9" t="s">
         <v>108</v>
@@ -6307,7 +6301,7 @@
         <v>179</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD30" s="9" t="s">
         <v>108</v>
@@ -6459,7 +6453,7 @@
         <v>179</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD31" s="9" t="s">
         <v>108</v>
@@ -6611,7 +6605,7 @@
         <v>179</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD32" s="9" t="s">
         <v>108</v>
@@ -6763,7 +6757,7 @@
         <v>152</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD33" s="9" t="s">
         <v>108</v>
@@ -6915,7 +6909,7 @@
         <v>152</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD34" s="9" t="s">
         <v>108</v>
@@ -7067,7 +7061,7 @@
         <v>152</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD35" s="9" t="s">
         <v>108</v>
@@ -7219,10 +7213,10 @@
         <v>180</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE36" s="9">
         <v>1</v>
@@ -7371,10 +7365,10 @@
         <v>181</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AE37" s="9">
         <v>1</v>
@@ -7523,10 +7517,10 @@
         <v>181</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AE38" s="9">
         <v>1</v>
@@ -7675,7 +7669,7 @@
         <v>153</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD39" s="9" t="s">
         <v>108</v>
@@ -7827,7 +7821,7 @@
         <v>153</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD40" s="9" t="s">
         <v>108</v>
@@ -7979,7 +7973,7 @@
         <v>152</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD41" s="9" t="s">
         <v>108</v>
@@ -8131,7 +8125,7 @@
         <v>152</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD42" s="9" t="s">
         <v>108</v>
@@ -8283,7 +8277,7 @@
         <v>152</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD43" s="9" t="s">
         <v>108</v>
@@ -8435,7 +8429,7 @@
         <v>152</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD44" s="9" t="s">
         <v>108</v>
@@ -8587,7 +8581,7 @@
         <v>152</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD45" s="9" t="s">
         <v>108</v>
@@ -8739,7 +8733,7 @@
         <v>152</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD46" s="9" t="s">
         <v>108</v>
@@ -8891,7 +8885,7 @@
         <v>152</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD47" s="9" t="s">
         <v>108</v>
@@ -9043,7 +9037,7 @@
         <v>152</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD48" s="9" t="s">
         <v>108</v>
@@ -9195,7 +9189,7 @@
         <v>179</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD49" s="9" t="s">
         <v>108</v>
@@ -9347,7 +9341,7 @@
         <v>179</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD50" s="9" t="s">
         <v>108</v>
@@ -9499,7 +9493,7 @@
         <v>179</v>
       </c>
       <c r="AC51" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD51" s="9" t="s">
         <v>108</v>
@@ -9651,7 +9645,7 @@
         <v>179</v>
       </c>
       <c r="AC52" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD52" s="9" t="s">
         <v>108</v>
@@ -9803,7 +9797,7 @@
         <v>179</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD53" s="9" t="s">
         <v>108</v>
@@ -9955,7 +9949,7 @@
         <v>179</v>
       </c>
       <c r="AC54" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD54" s="9" t="s">
         <v>108</v>
@@ -10107,7 +10101,7 @@
         <v>179</v>
       </c>
       <c r="AC55" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD55" s="9" t="s">
         <v>108</v>
@@ -10259,7 +10253,7 @@
         <v>179</v>
       </c>
       <c r="AC56" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD56" s="9" t="s">
         <v>108</v>
@@ -10411,7 +10405,7 @@
         <v>179</v>
       </c>
       <c r="AC57" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD57" s="9" t="s">
         <v>108</v>
@@ -10563,7 +10557,7 @@
         <v>179</v>
       </c>
       <c r="AC58" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD58" s="9" t="s">
         <v>108</v>
@@ -10715,10 +10709,10 @@
         <v>180</v>
       </c>
       <c r="AC59" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD59" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AE59" s="9">
         <v>1</v>
@@ -10867,10 +10861,10 @@
         <v>180</v>
       </c>
       <c r="AC60" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD60" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AE60" s="9">
         <v>1</v>
@@ -11013,16 +11007,16 @@
         <v>21</v>
       </c>
       <c r="AA61" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB61" s="9" t="s">
         <v>180</v>
       </c>
       <c r="AC61" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD61" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AE61" s="9">
         <v>-1</v>
@@ -11165,16 +11159,16 @@
         <v>5</v>
       </c>
       <c r="AA62" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB62" s="9" t="s">
         <v>180</v>
       </c>
       <c r="AC62" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD62" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AE62" s="9">
         <v>-1</v>
@@ -11323,10 +11317,10 @@
         <v>153</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AE63" s="5">
         <v>1</v>
@@ -11365,7 +11359,7 @@
         <v>109</v>
       </c>
       <c r="AQ63" s="36" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="AR63" s="35" t="s">
         <v>111</v>
@@ -11377,7 +11371,7 @@
         <v>136</v>
       </c>
       <c r="AU63" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>136</v>
@@ -11475,10 +11469,10 @@
         <v>153</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD64" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE64" s="5">
         <v>1</v>
@@ -11529,7 +11523,7 @@
         <v>136</v>
       </c>
       <c r="AU64" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>136</v>
@@ -11627,10 +11621,10 @@
         <v>153</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD65" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE65" s="5">
         <v>1</v>
@@ -11681,7 +11675,7 @@
         <v>136</v>
       </c>
       <c r="AU65" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>136</v>
@@ -11779,10 +11773,10 @@
         <v>178</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE66" s="5">
         <v>-1</v>
@@ -11833,7 +11827,7 @@
         <v>136</v>
       </c>
       <c r="AU66" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>136</v>
@@ -11931,10 +11925,10 @@
         <v>178</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE67" s="5">
         <v>-1</v>
@@ -11985,7 +11979,7 @@
         <v>136</v>
       </c>
       <c r="AU67" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>136</v>
@@ -12083,10 +12077,10 @@
         <v>178</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD68" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE68" s="5">
         <v>-1</v>
@@ -12137,7 +12131,7 @@
         <v>136</v>
       </c>
       <c r="AU68" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>136</v>
@@ -12235,10 +12229,10 @@
         <v>179</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD69" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE69" s="5">
         <v>-1</v>
@@ -12289,7 +12283,7 @@
         <v>136</v>
       </c>
       <c r="AU69" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>136</v>
@@ -12387,10 +12381,10 @@
         <v>179</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE70" s="5">
         <v>-1</v>
@@ -12441,7 +12435,7 @@
         <v>136</v>
       </c>
       <c r="AU70" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>136</v>
@@ -12539,10 +12533,10 @@
         <v>179</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD71" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE71" s="5">
         <v>-1</v>
@@ -12593,7 +12587,7 @@
         <v>136</v>
       </c>
       <c r="AU71" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>136</v>
@@ -12691,7 +12685,7 @@
         <v>179</v>
       </c>
       <c r="AC72" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD72" s="9" t="s">
         <v>108</v>
@@ -12733,7 +12727,7 @@
         <v>109</v>
       </c>
       <c r="AQ72" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AR72" s="11" t="s">
         <v>111</v>
@@ -12745,7 +12739,7 @@
         <v>136</v>
       </c>
       <c r="AU72" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV72" s="9" t="s">
         <v>136</v>
@@ -12843,7 +12837,7 @@
         <v>179</v>
       </c>
       <c r="AC73" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD73" s="9" t="s">
         <v>108</v>
@@ -12885,7 +12879,7 @@
         <v>109</v>
       </c>
       <c r="AQ73" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AR73" s="11" t="s">
         <v>111</v>
@@ -12897,7 +12891,7 @@
         <v>136</v>
       </c>
       <c r="AU73" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV73" s="9" t="s">
         <v>136</v>
@@ -12995,7 +12989,7 @@
         <v>179</v>
       </c>
       <c r="AC74" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD74" s="9" t="s">
         <v>108</v>
@@ -13037,7 +13031,7 @@
         <v>109</v>
       </c>
       <c r="AQ74" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AR74" s="11" t="s">
         <v>111</v>
@@ -13049,7 +13043,7 @@
         <v>136</v>
       </c>
       <c r="AU74" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV74" s="9" t="s">
         <v>136</v>
@@ -13147,10 +13141,10 @@
         <v>181</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AE75" s="9">
         <v>1</v>
@@ -13189,7 +13183,7 @@
         <v>109</v>
       </c>
       <c r="AQ75" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AR75" s="11" t="s">
         <v>111</v>
@@ -13201,7 +13195,7 @@
         <v>136</v>
       </c>
       <c r="AU75" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV75" s="9" t="s">
         <v>136</v>
@@ -13299,10 +13293,10 @@
         <v>181</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD76" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AE76" s="9">
         <v>1</v>
@@ -13341,7 +13335,7 @@
         <v>109</v>
       </c>
       <c r="AQ76" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AR76" s="11" t="s">
         <v>111</v>
@@ -13353,7 +13347,7 @@
         <v>136</v>
       </c>
       <c r="AU76" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV76" s="9" t="s">
         <v>136</v>
@@ -13451,10 +13445,10 @@
         <v>181</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD77" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AE77" s="9">
         <v>1</v>
@@ -13493,7 +13487,7 @@
         <v>109</v>
       </c>
       <c r="AQ77" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AR77" s="11" t="s">
         <v>111</v>
@@ -13505,7 +13499,7 @@
         <v>136</v>
       </c>
       <c r="AU77" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV77" s="9" t="s">
         <v>136</v>
@@ -13603,10 +13597,10 @@
         <v>181</v>
       </c>
       <c r="AC78" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD78" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AE78" s="5">
         <v>1</v>
@@ -13657,7 +13651,7 @@
         <v>136</v>
       </c>
       <c r="AU78" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>136</v>
@@ -13755,10 +13749,10 @@
         <v>181</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD79" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AE79" s="5">
         <v>1</v>
@@ -13809,7 +13803,7 @@
         <v>136</v>
       </c>
       <c r="AU79" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>136</v>
@@ -13907,10 +13901,10 @@
         <v>181</v>
       </c>
       <c r="AC80" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD80" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AE80" s="5">
         <v>1</v>
@@ -13961,7 +13955,7 @@
         <v>136</v>
       </c>
       <c r="AU80" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>136</v>
@@ -14059,10 +14053,10 @@
         <v>152</v>
       </c>
       <c r="AC81" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD81" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE81" s="5">
         <v>1</v>
@@ -14113,7 +14107,7 @@
         <v>136</v>
       </c>
       <c r="AU81" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>136</v>
@@ -14211,10 +14205,10 @@
         <v>152</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD82" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE82" s="5">
         <v>1</v>
@@ -14265,7 +14259,7 @@
         <v>136</v>
       </c>
       <c r="AU82" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>136</v>
@@ -14363,10 +14357,10 @@
         <v>152</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD83" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE83" s="5">
         <v>1</v>
@@ -14417,7 +14411,7 @@
         <v>136</v>
       </c>
       <c r="AU83" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>136</v>
@@ -14515,10 +14509,10 @@
         <v>152</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD84" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE84" s="5">
         <v>1</v>
@@ -14569,7 +14563,7 @@
         <v>136</v>
       </c>
       <c r="AU84" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>136</v>
@@ -14667,10 +14661,10 @@
         <v>152</v>
       </c>
       <c r="AC85" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD85" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE85" s="5">
         <v>1</v>
@@ -14721,7 +14715,7 @@
         <v>136</v>
       </c>
       <c r="AU85" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>136</v>
@@ -14819,10 +14813,10 @@
         <v>152</v>
       </c>
       <c r="AC86" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD86" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE86" s="5">
         <v>1</v>
@@ -14873,7 +14867,7 @@
         <v>136</v>
       </c>
       <c r="AU86" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>136</v>
@@ -14971,10 +14965,10 @@
         <v>152</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD87" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE87" s="5">
         <v>1</v>
@@ -15025,7 +15019,7 @@
         <v>136</v>
       </c>
       <c r="AU87" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>136</v>
@@ -15123,10 +15117,10 @@
         <v>152</v>
       </c>
       <c r="AC88" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD88" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE88" s="5">
         <v>1</v>
@@ -15177,7 +15171,7 @@
         <v>136</v>
       </c>
       <c r="AU88" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>136</v>
@@ -15275,10 +15269,10 @@
         <v>152</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD89" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE89" s="5">
         <v>1</v>
@@ -15329,7 +15323,7 @@
         <v>136</v>
       </c>
       <c r="AU89" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>136</v>
@@ -15427,10 +15421,10 @@
         <v>153</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD90" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE90" s="5">
         <v>1</v>
@@ -15481,7 +15475,7 @@
         <v>136</v>
       </c>
       <c r="AU90" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>136</v>
@@ -15579,10 +15573,10 @@
         <v>153</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD91" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE91" s="5">
         <v>1</v>
@@ -15633,7 +15627,7 @@
         <v>136</v>
       </c>
       <c r="AU91" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>136</v>
@@ -15731,10 +15725,10 @@
         <v>153</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD92" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE92" s="5">
         <v>1</v>
@@ -15785,7 +15779,7 @@
         <v>136</v>
       </c>
       <c r="AU92" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>136</v>
@@ -15883,10 +15877,10 @@
         <v>153</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD93" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE93" s="5">
         <v>1</v>
@@ -15937,7 +15931,7 @@
         <v>136</v>
       </c>
       <c r="AU93" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>136</v>
@@ -16035,10 +16029,10 @@
         <v>153</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD94" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE94" s="5">
         <v>1</v>
@@ -16089,7 +16083,7 @@
         <v>136</v>
       </c>
       <c r="AU94" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>136</v>
@@ -16187,10 +16181,10 @@
         <v>153</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AD95" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AE95" s="5">
         <v>1</v>
@@ -16241,7 +16235,7 @@
         <v>136</v>
       </c>
       <c r="AU95" s="5" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>136</v>
@@ -16306,7 +16300,7 @@
         <v>42.85</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S96" s="8" t="s">
         <v>108</v>
@@ -16321,7 +16315,7 @@
         <v>15.38</v>
       </c>
       <c r="W96" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="X96" s="8" t="s">
         <v>108</v>
@@ -16339,10 +16333,10 @@
         <v>153</v>
       </c>
       <c r="AC96" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AD96" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AE96" s="9">
         <v>1</v>
@@ -16393,7 +16387,7 @@
         <v>136</v>
       </c>
       <c r="AU96" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV96" s="9" t="s">
         <v>136</v>
@@ -16458,7 +16452,7 @@
         <v>15.38</v>
       </c>
       <c r="R97" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S97" s="8" t="s">
         <v>108</v>
@@ -16473,7 +16467,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="W97" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="X97" s="8" t="s">
         <v>108</v>
@@ -16491,10 +16485,10 @@
         <v>153</v>
       </c>
       <c r="AC97" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AD97" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AE97" s="9">
         <v>1</v>
@@ -16545,7 +16539,7 @@
         <v>136</v>
       </c>
       <c r="AU97" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV97" s="9" t="s">
         <v>136</v>
@@ -16610,7 +16604,7 @@
         <v>42.85</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S98" s="8" t="s">
         <v>108</v>
@@ -16625,7 +16619,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="X98" s="8" t="s">
         <v>108</v>
@@ -16643,10 +16637,10 @@
         <v>153</v>
       </c>
       <c r="AC98" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AD98" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AE98" s="9">
         <v>1</v>
@@ -16697,7 +16691,7 @@
         <v>136</v>
       </c>
       <c r="AU98" s="9" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AV98" s="9" t="s">
         <v>136</v>
@@ -16795,7 +16789,7 @@
         <v>153</v>
       </c>
       <c r="AC99" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD99" s="9" t="s">
         <v>108</v>
@@ -16837,7 +16831,7 @@
         <v>109</v>
       </c>
       <c r="AQ99" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AR99" s="10" t="s">
         <v>111</v>
@@ -16947,7 +16941,7 @@
         <v>153</v>
       </c>
       <c r="AC100" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD100" s="9" t="s">
         <v>108</v>
@@ -17099,10 +17093,10 @@
         <v>180</v>
       </c>
       <c r="AC101" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD101" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE101" s="9">
         <v>1</v>
@@ -17251,7 +17245,7 @@
         <v>180</v>
       </c>
       <c r="AC102" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD102" s="9" t="s">
         <v>108</v>
@@ -17403,7 +17397,7 @@
         <v>152</v>
       </c>
       <c r="AC103" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD103" s="9" t="s">
         <v>108</v>
@@ -17555,7 +17549,7 @@
         <v>180</v>
       </c>
       <c r="AC104" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD104" s="9" t="s">
         <v>108</v>
@@ -17707,7 +17701,7 @@
         <v>152</v>
       </c>
       <c r="AC105" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD105" s="9" t="s">
         <v>108</v>
@@ -17859,7 +17853,7 @@
         <v>179</v>
       </c>
       <c r="AC106" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD106" s="10" t="s">
         <v>108</v>
@@ -18005,16 +17999,16 @@
         <v>23</v>
       </c>
       <c r="AA107" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB107" s="25" t="s">
         <v>179</v>
       </c>
       <c r="AC107" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD107" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE107" s="22">
         <v>-1</v>
@@ -18053,7 +18047,7 @@
         <v>109</v>
       </c>
       <c r="AQ107" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR107" s="24" t="s">
         <v>111</v>
@@ -18157,16 +18151,16 @@
         <v>23</v>
       </c>
       <c r="AA108" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AB108" s="25" t="s">
         <v>179</v>
       </c>
       <c r="AC108" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD108" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE108" s="22">
         <v>-1</v>
@@ -18205,7 +18199,7 @@
         <v>109</v>
       </c>
       <c r="AQ108" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR108" s="24" t="s">
         <v>111</v>
@@ -18309,16 +18303,16 @@
         <v>23</v>
       </c>
       <c r="AA109" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AB109" s="25" t="s">
         <v>179</v>
       </c>
       <c r="AC109" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD109" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE109" s="22">
         <v>-1</v>
@@ -18357,7 +18351,7 @@
         <v>109</v>
       </c>
       <c r="AQ109" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR109" s="24" t="s">
         <v>111</v>
@@ -18461,16 +18455,16 @@
         <v>23</v>
       </c>
       <c r="AA110" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AB110" s="25" t="s">
         <v>153</v>
       </c>
       <c r="AC110" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD110" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE110" s="22">
         <v>1</v>
@@ -18509,7 +18503,7 @@
         <v>109</v>
       </c>
       <c r="AQ110" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR110" s="24" t="s">
         <v>111</v>
@@ -18613,16 +18607,16 @@
         <v>23</v>
       </c>
       <c r="AA111" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AB111" s="25" t="s">
         <v>153</v>
       </c>
       <c r="AC111" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD111" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE111" s="22">
         <v>-1</v>
@@ -18661,7 +18655,7 @@
         <v>109</v>
       </c>
       <c r="AQ111" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR111" s="24" t="s">
         <v>111</v>
@@ -18765,16 +18759,16 @@
         <v>23</v>
       </c>
       <c r="AA112" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AB112" s="25" t="s">
         <v>179</v>
       </c>
       <c r="AC112" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD112" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE112" s="22">
         <v>-1</v>
@@ -18813,7 +18807,7 @@
         <v>109</v>
       </c>
       <c r="AQ112" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR112" s="24" t="s">
         <v>111</v>
@@ -18917,16 +18911,16 @@
         <v>23</v>
       </c>
       <c r="AA113" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AB113" s="25" t="s">
         <v>179</v>
       </c>
       <c r="AC113" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD113" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE113" s="22">
         <v>-1</v>
@@ -18965,7 +18959,7 @@
         <v>109</v>
       </c>
       <c r="AQ113" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AR113" s="24" t="s">
         <v>111</v>
@@ -19027,7 +19021,7 @@
         <v>250</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>108</v>
@@ -19075,10 +19069,10 @@
         <v>153</v>
       </c>
       <c r="AC114" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD114" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE114" s="9">
         <v>1</v>
@@ -19117,7 +19111,7 @@
         <v>109</v>
       </c>
       <c r="AQ114" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AR114" s="10" t="s">
         <v>111</v>
@@ -19179,7 +19173,7 @@
         <v>250</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N115" s="10" t="s">
         <v>108</v>
@@ -19227,10 +19221,10 @@
         <v>153</v>
       </c>
       <c r="AC115" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD115" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE115" s="9">
         <v>1</v>
@@ -19269,7 +19263,7 @@
         <v>109</v>
       </c>
       <c r="AQ115" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AR115" s="10" t="s">
         <v>111</v>
@@ -19331,7 +19325,7 @@
         <v>250</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N116" s="10" t="s">
         <v>108</v>
@@ -19379,10 +19373,10 @@
         <v>153</v>
       </c>
       <c r="AC116" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD116" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE116" s="9">
         <v>1</v>
@@ -19421,7 +19415,7 @@
         <v>109</v>
       </c>
       <c r="AQ116" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AR116" s="10" t="s">
         <v>111</v>
@@ -19483,7 +19477,7 @@
         <v>250</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N117" s="10" t="s">
         <v>108</v>
@@ -19531,10 +19525,10 @@
         <v>153</v>
       </c>
       <c r="AC117" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD117" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE117" s="9">
         <v>1</v>
@@ -19573,7 +19567,7 @@
         <v>109</v>
       </c>
       <c r="AQ117" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AR117" s="10" t="s">
         <v>111</v>
@@ -19635,7 +19629,7 @@
         <v>250</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N118" s="10" t="s">
         <v>108</v>
@@ -19683,10 +19677,10 @@
         <v>153</v>
       </c>
       <c r="AC118" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD118" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE118" s="9">
         <v>1</v>
@@ -19725,7 +19719,7 @@
         <v>109</v>
       </c>
       <c r="AQ118" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AR118" s="10" t="s">
         <v>111</v>
@@ -19787,7 +19781,7 @@
         <v>250</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N119" s="10" t="s">
         <v>108</v>
@@ -19835,10 +19829,10 @@
         <v>153</v>
       </c>
       <c r="AC119" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD119" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE119" s="9">
         <v>1</v>
@@ -19877,7 +19871,7 @@
         <v>109</v>
       </c>
       <c r="AQ119" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AR119" s="10" t="s">
         <v>111</v>
